--- a/G2-UTP/PREREVIEW-G2-UTP_Bungabong.xlsx
+++ b/G2-UTP/PREREVIEW-G2-UTP_Bungabong.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="681" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" tabRatio="681" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rev History" sheetId="1" state="hidden" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Rev History'!$A$1:$M$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Test Environment'!$A$1:$D$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'UT Checklist'!$A$2:$F$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'UT-getNumGuests'!$A$1:$Y$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'UT-getNumGuests'!$A$1:$Y$77</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'UTP Cover Page'!$A$1:$M$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="191">
   <si>
     <t>Internal Use Only</t>
   </si>
@@ -781,23 +781,34 @@
     <t>P. Bungabong</t>
   </si>
   <si>
-    <t>(Same as expected output) 1. Displays the error that occurred when trying to get number of guests.            2. Counts the number of times the user inputted an invalid format.</t>
-  </si>
-  <si>
-    <t>1. Displays the error that occurred when trying to get number of guests.            2. Adds one count to the number of times the user gave an invalid input.</t>
-  </si>
-  <si>
-    <t>1. Asks the user for input on how many guests are being reserved for the given guestType.                2. Checks if given input is valid or not, then, displays error when issues arise.     3. Adds one count to the number of times the user gave an invalid input.</t>
-  </si>
-  <si>
-    <t>(Same as expected output)
-1. Asks the user for input on how many guests are being reserved for the given guestType.                2. Checks if given input is valid or not, then, displays error when issues arise.     3. Adds one count to the number of times the user gave an invalid input.</t>
-  </si>
-  <si>
     <t>MRS-01</t>
   </si>
   <si>
     <t>0ad165f</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>DBC003</t>
+  </si>
+  <si>
+    <t>1.) Displays an error message that the user gave invalid inputs 3 times.</t>
+  </si>
+  <si>
+    <t>(Same as expected output) 1. Asks the user for input on how many guests are being reserved for the given guestType.                2. Checks if given input is valid or not, then, displays error when issues arise.     3. Adds one count to the number of times the user gave an invalid input.</t>
+  </si>
+  <si>
+    <t>1. Asks the user for input on how many guests are being reserved for the given guestType.                2. Checks given input if valid, then, displays cause of error when issues found.     3. Adds one count to the number of times the user gave an invalid input.</t>
+  </si>
+  <si>
+    <t>1. Asks the user for input on how many guests are being reserved for the given guestType.                      2. Displays an error message when having problems in parsing the input for number of guests.            3. Adds one count to the number of times the user gave an invalid input.</t>
+  </si>
+  <si>
+    <t>(Same as expected output) 1.  Asks the user for input on how many guests are being reserved for the given guestType.                      2. Displays an error message when having problems in parsing the input for number of guests.            3. Adds one count to the number of times the user gave an invalid input.</t>
   </si>
 </sst>
 </file>
@@ -805,10 +816,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="169" formatCode="mmmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="170" formatCode="mmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -1140,7 +1151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -1962,12 +1973,90 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1986,7 +2075,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2005,7 +2094,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2116,31 +2205,31 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2173,9 +2262,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2266,13 +2352,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2287,7 +2373,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2353,7 +2439,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2434,10 +2520,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2452,7 +2538,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
@@ -2464,7 +2550,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2560,7 +2646,7 @@
     <xf numFmtId="49" fontId="35" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="35" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2572,7 +2658,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2584,33 +2670,123 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="5" borderId="47" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="29" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2620,179 +2796,140 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3383,815 +3520,820 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="163" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="163" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" style="163" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="163" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" style="163" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="164" customWidth="1"/>
-    <col min="10" max="10" width="9" style="165"/>
-    <col min="11" max="11" width="9.88671875" style="166" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="165" customWidth="1"/>
-    <col min="13" max="13" width="50.6640625" style="165" customWidth="1"/>
-    <col min="14" max="28" width="9" style="164"/>
-    <col min="29" max="16384" width="9" style="167"/>
+    <col min="1" max="1" width="3.6640625" style="162" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="162" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" style="162" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="162" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" style="162" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="163" customWidth="1"/>
+    <col min="10" max="10" width="9" style="164"/>
+    <col min="11" max="11" width="9.88671875" style="165" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="164" customWidth="1"/>
+    <col min="13" max="13" width="50.6640625" style="164" customWidth="1"/>
+    <col min="14" max="28" width="9" style="163"/>
+    <col min="29" max="16384" width="9" style="166"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
     </row>
     <row r="2" spans="2:13" ht="30" customHeight="1">
-      <c r="B2" s="169"/>
-      <c r="C2" s="211" t="s">
+      <c r="B2" s="168"/>
+      <c r="C2" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="170" t="s">
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="200" t="s">
+      <c r="J2" s="199" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="13.5" customHeight="1">
-      <c r="B3" s="171"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="173"/>
-      <c r="J3" s="201" t="s">
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="172"/>
+      <c r="J3" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="201" t="s">
+      <c r="K3" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="201" t="s">
+      <c r="L3" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="201" t="s">
+      <c r="M3" s="200" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="171"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="173"/>
-      <c r="J4" s="202" t="s">
+      <c r="B4" s="170"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="172"/>
+      <c r="J4" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="203">
+      <c r="K4" s="202">
         <v>39680</v>
       </c>
-      <c r="L4" s="204" t="s">
+      <c r="L4" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="205" t="s">
+      <c r="M4" s="204" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="171"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="173"/>
-      <c r="J5" s="202" t="s">
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="172"/>
+      <c r="J5" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="203">
+      <c r="K5" s="202">
         <v>39694</v>
       </c>
-      <c r="L5" s="204" t="s">
+      <c r="L5" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="204" t="s">
+      <c r="M5" s="203" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="13.5" customHeight="1">
-      <c r="B6" s="171"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="173"/>
-      <c r="J6" s="202" t="s">
+      <c r="B6" s="170"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="172"/>
+      <c r="J6" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="203">
+      <c r="K6" s="202">
         <v>41103</v>
       </c>
-      <c r="L6" s="204" t="s">
+      <c r="L6" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="205" t="s">
+      <c r="M6" s="204" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="13.5" customHeight="1">
-      <c r="B7" s="171"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="173"/>
-      <c r="J7" s="202" t="s">
+      <c r="B7" s="170"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="172"/>
+      <c r="J7" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="203">
+      <c r="K7" s="202">
         <v>41123</v>
       </c>
-      <c r="L7" s="204" t="s">
+      <c r="L7" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="205" t="s">
+      <c r="M7" s="204" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="22.8">
-      <c r="B8" s="171"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="173"/>
-      <c r="J8" s="202" t="s">
+      <c r="B8" s="170"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="172"/>
+      <c r="J8" s="201" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="203">
+      <c r="K8" s="202">
         <v>42157</v>
       </c>
-      <c r="L8" s="204" t="s">
+      <c r="L8" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="205" t="s">
+      <c r="M8" s="204" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="13.5" customHeight="1">
-      <c r="B9" s="171"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="173"/>
-      <c r="J9" s="202" t="s">
+      <c r="B9" s="170"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="172"/>
+      <c r="J9" s="201" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="203">
+      <c r="K9" s="202">
         <v>42753</v>
       </c>
-      <c r="L9" s="204" t="s">
+      <c r="L9" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="205" t="s">
+      <c r="M9" s="204" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="171"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="171"/>
-      <c r="J10" s="202" t="s">
+      <c r="B10" s="170"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="170"/>
+      <c r="J10" s="201" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="203">
+      <c r="K10" s="202">
         <v>43891</v>
       </c>
-      <c r="L10" s="204" t="s">
+      <c r="L10" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="205" t="s">
+      <c r="M10" s="204" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="171"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="171"/>
-      <c r="J11" s="206"/>
-      <c r="K11" s="207"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="209"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="170"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="206"/>
+      <c r="L11" s="207"/>
+      <c r="M11" s="208"/>
     </row>
     <row r="12" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B12" s="171"/>
-      <c r="C12" s="212"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="171"/>
-      <c r="J12" s="206"/>
-      <c r="K12" s="207"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="209"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
+      <c r="E12" s="237"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="170"/>
+      <c r="J12" s="205"/>
+      <c r="K12" s="206"/>
+      <c r="L12" s="207"/>
+      <c r="M12" s="208"/>
     </row>
     <row r="13" spans="2:13" ht="18" customHeight="1">
-      <c r="B13" s="171"/>
-      <c r="C13" s="213" t="s">
+      <c r="B13" s="170"/>
+      <c r="C13" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="213"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="171"/>
-      <c r="J13" s="206"/>
-      <c r="K13" s="207"/>
-      <c r="L13" s="209"/>
-      <c r="M13" s="209"/>
+      <c r="D13" s="231"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="231"/>
+      <c r="G13" s="170"/>
+      <c r="J13" s="205"/>
+      <c r="K13" s="206"/>
+      <c r="L13" s="208"/>
+      <c r="M13" s="208"/>
     </row>
     <row r="14" spans="2:13" ht="17.399999999999999">
-      <c r="B14" s="171"/>
-      <c r="C14" s="213" t="s">
+      <c r="B14" s="170"/>
+      <c r="C14" s="231" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="213"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="213"/>
-      <c r="G14" s="171"/>
-      <c r="J14" s="206"/>
-      <c r="K14" s="207"/>
-      <c r="L14" s="209"/>
-      <c r="M14" s="209"/>
+      <c r="D14" s="231"/>
+      <c r="E14" s="231"/>
+      <c r="F14" s="231"/>
+      <c r="G14" s="170"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="206"/>
+      <c r="L14" s="208"/>
+      <c r="M14" s="208"/>
     </row>
     <row r="15" spans="2:13" ht="16.2">
-      <c r="B15" s="171"/>
-      <c r="C15" s="214"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="171"/>
-      <c r="J15" s="206"/>
-      <c r="K15" s="207"/>
-      <c r="L15" s="209"/>
-      <c r="M15" s="209"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="233"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="233"/>
+      <c r="G15" s="170"/>
+      <c r="J15" s="205"/>
+      <c r="K15" s="206"/>
+      <c r="L15" s="208"/>
+      <c r="M15" s="208"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B16" s="171"/>
-      <c r="C16" s="214"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="171"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="207"/>
-      <c r="L16" s="209"/>
-      <c r="M16" s="209"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="233"/>
+      <c r="G16" s="170"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="206"/>
+      <c r="L16" s="208"/>
+      <c r="M16" s="208"/>
     </row>
     <row r="17" spans="2:13" ht="16.2">
-      <c r="B17" s="171"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="215"/>
-      <c r="G17" s="171"/>
-      <c r="J17" s="206"/>
-      <c r="K17" s="207"/>
-      <c r="L17" s="209"/>
-      <c r="M17" s="209"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="234"/>
+      <c r="D17" s="234"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="170"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="206"/>
+      <c r="L17" s="208"/>
+      <c r="M17" s="208"/>
     </row>
     <row r="18" spans="2:13" ht="14.4">
-      <c r="B18" s="171"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="181"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="171"/>
-      <c r="J18" s="206"/>
-      <c r="K18" s="207"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="170"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="206"/>
+      <c r="L18" s="208"/>
+      <c r="M18" s="208"/>
     </row>
     <row r="19" spans="2:13" ht="14.4">
-      <c r="B19" s="171"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="171"/>
-      <c r="J19" s="206"/>
-      <c r="K19" s="207"/>
-      <c r="L19" s="209"/>
-      <c r="M19" s="209"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="170"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="206"/>
+      <c r="L19" s="208"/>
+      <c r="M19" s="208"/>
     </row>
     <row r="20" spans="2:13" ht="17.399999999999999">
-      <c r="B20" s="171"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="216"/>
-      <c r="E20" s="216"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="171"/>
-      <c r="J20" s="206"/>
-      <c r="K20" s="207"/>
-      <c r="L20" s="209"/>
-      <c r="M20" s="209"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="235"/>
+      <c r="D20" s="235"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="170"/>
+      <c r="J20" s="205"/>
+      <c r="K20" s="206"/>
+      <c r="L20" s="208"/>
+      <c r="M20" s="208"/>
     </row>
     <row r="21" spans="2:13" ht="18" customHeight="1">
-      <c r="B21" s="171"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="216"/>
-      <c r="E21" s="216"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="171"/>
-      <c r="J21" s="206"/>
-      <c r="K21" s="207"/>
-      <c r="L21" s="209"/>
-      <c r="M21" s="209"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="235"/>
+      <c r="D21" s="235"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="170"/>
+      <c r="J21" s="205"/>
+      <c r="K21" s="206"/>
+      <c r="L21" s="208"/>
+      <c r="M21" s="208"/>
     </row>
     <row r="22" spans="2:13" ht="18" customHeight="1">
-      <c r="B22" s="171"/>
-      <c r="C22" s="217"/>
-      <c r="D22" s="217"/>
-      <c r="E22" s="217"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="171"/>
-      <c r="J22" s="206"/>
-      <c r="K22" s="207"/>
-      <c r="L22" s="209"/>
-      <c r="M22" s="209"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="230"/>
+      <c r="D22" s="230"/>
+      <c r="E22" s="230"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="170"/>
+      <c r="J22" s="205"/>
+      <c r="K22" s="206"/>
+      <c r="L22" s="208"/>
+      <c r="M22" s="208"/>
     </row>
     <row r="23" spans="2:13" ht="16.2">
-      <c r="B23" s="171"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="185"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="171"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="170"/>
     </row>
     <row r="24" spans="2:13" ht="16.2">
-      <c r="B24" s="171"/>
-      <c r="C24" s="217"/>
-      <c r="D24" s="217"/>
-      <c r="E24" s="217"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="171"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="230"/>
+      <c r="D24" s="230"/>
+      <c r="E24" s="230"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="170"/>
     </row>
     <row r="25" spans="2:13" ht="16.2">
-      <c r="B25" s="171"/>
-      <c r="C25" s="217"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="217"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="171"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="230"/>
+      <c r="D25" s="230"/>
+      <c r="E25" s="230"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="170"/>
     </row>
     <row r="26" spans="2:13" ht="17.399999999999999">
-      <c r="B26" s="171"/>
-      <c r="C26" s="213" t="s">
+      <c r="B26" s="170"/>
+      <c r="C26" s="231" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="213"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="171"/>
+      <c r="D26" s="231"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="231"/>
+      <c r="G26" s="170"/>
     </row>
     <row r="27" spans="2:13" ht="17.399999999999999">
-      <c r="B27" s="171"/>
-      <c r="C27" s="218">
+      <c r="B27" s="170"/>
+      <c r="C27" s="232">
         <v>43891</v>
       </c>
-      <c r="D27" s="218"/>
-      <c r="E27" s="218"/>
-      <c r="F27" s="218"/>
-      <c r="G27" s="171"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="232"/>
+      <c r="G27" s="170"/>
     </row>
     <row r="28" spans="2:13" ht="16.2">
-      <c r="C28" s="187"/>
-      <c r="D28" s="188"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="189"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="188"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="C29" s="190"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="192"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="191"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="C30" s="193"/>
-      <c r="D30" s="194"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="195"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="194"/>
     </row>
     <row r="37" spans="2:7" ht="13.8">
-      <c r="B37" s="196" t="s">
+      <c r="B37" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="197"/>
-      <c r="D37" s="198"/>
-      <c r="E37" s="198"/>
-      <c r="F37" s="199"/>
-      <c r="G37" s="199"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="198"/>
+      <c r="G37" s="198"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="198"/>
-      <c r="D38" s="198"/>
-      <c r="E38" s="198"/>
-      <c r="F38" s="199"/>
-      <c r="G38" s="199"/>
+      <c r="B38" s="197"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="197"/>
+      <c r="F38" s="198"/>
+      <c r="G38" s="198"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="199"/>
-      <c r="C39" s="197"/>
-      <c r="D39" s="198"/>
-      <c r="E39" s="198"/>
-      <c r="F39" s="199"/>
-      <c r="G39" s="199"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="197"/>
+      <c r="E39" s="197"/>
+      <c r="F39" s="198"/>
+      <c r="G39" s="198"/>
     </row>
     <row r="40" spans="2:7" ht="13.8">
-      <c r="B40" s="196" t="s">
+      <c r="B40" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="197"/>
-      <c r="D40" s="198"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="199"/>
-      <c r="G40" s="199"/>
+      <c r="C40" s="196"/>
+      <c r="D40" s="197"/>
+      <c r="E40" s="197"/>
+      <c r="F40" s="198"/>
+      <c r="G40" s="198"/>
     </row>
     <row r="41" spans="2:7" ht="13.8">
-      <c r="B41" s="196" t="s">
+      <c r="B41" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="197"/>
-      <c r="E41" s="197"/>
-      <c r="F41" s="199"/>
-      <c r="G41" s="199"/>
+      <c r="C41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="198"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="E42" s="197"/>
-      <c r="F42" s="168"/>
+      <c r="E42" s="196"/>
+      <c r="F42" s="167"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="198"/>
-      <c r="C43" s="198"/>
-      <c r="D43" s="198"/>
-      <c r="E43" s="198"/>
-      <c r="F43" s="198"/>
-      <c r="G43" s="198"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="197"/>
+      <c r="G43" s="197"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="198"/>
-      <c r="C44" s="198"/>
-      <c r="D44" s="198"/>
-      <c r="E44" s="198"/>
-      <c r="F44" s="198"/>
-      <c r="G44" s="198"/>
+      <c r="B44" s="197"/>
+      <c r="C44" s="197"/>
+      <c r="D44" s="197"/>
+      <c r="E44" s="197"/>
+      <c r="F44" s="197"/>
+      <c r="G44" s="197"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="198"/>
-      <c r="C45" s="198"/>
-      <c r="D45" s="198"/>
-      <c r="E45" s="198"/>
-      <c r="F45" s="198"/>
-      <c r="G45" s="198"/>
+      <c r="B45" s="197"/>
+      <c r="C45" s="197"/>
+      <c r="D45" s="197"/>
+      <c r="E45" s="197"/>
+      <c r="F45" s="197"/>
+      <c r="G45" s="197"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="198"/>
-      <c r="C46" s="198"/>
-      <c r="D46" s="198"/>
-      <c r="E46" s="198"/>
-      <c r="F46" s="198"/>
-      <c r="G46" s="198"/>
+      <c r="B46" s="197"/>
+      <c r="C46" s="197"/>
+      <c r="D46" s="197"/>
+      <c r="E46" s="197"/>
+      <c r="F46" s="197"/>
+      <c r="G46" s="197"/>
     </row>
     <row r="47" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B47" s="198"/>
-      <c r="C47" s="198"/>
-      <c r="D47" s="198"/>
-      <c r="E47" s="198"/>
-      <c r="F47" s="198"/>
-      <c r="G47" s="198"/>
+      <c r="B47" s="197"/>
+      <c r="C47" s="197"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="197"/>
+      <c r="F47" s="197"/>
+      <c r="G47" s="197"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="198"/>
-      <c r="C48" s="198"/>
-      <c r="D48" s="198"/>
-      <c r="E48" s="198"/>
-      <c r="F48" s="198"/>
-      <c r="G48" s="198"/>
+      <c r="B48" s="197"/>
+      <c r="C48" s="197"/>
+      <c r="D48" s="197"/>
+      <c r="E48" s="197"/>
+      <c r="F48" s="197"/>
+      <c r="G48" s="197"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="198"/>
-      <c r="C49" s="198"/>
-      <c r="D49" s="198"/>
-      <c r="E49" s="198"/>
-      <c r="F49" s="198"/>
-      <c r="G49" s="198"/>
+      <c r="B49" s="197"/>
+      <c r="C49" s="197"/>
+      <c r="D49" s="197"/>
+      <c r="E49" s="197"/>
+      <c r="F49" s="197"/>
+      <c r="G49" s="197"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="198"/>
-      <c r="C50" s="198"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="198"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="198"/>
+      <c r="B50" s="197"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="197"/>
+      <c r="E50" s="197"/>
+      <c r="F50" s="197"/>
+      <c r="G50" s="197"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="198"/>
-      <c r="C51" s="198"/>
-      <c r="D51" s="198"/>
-      <c r="E51" s="198"/>
-      <c r="F51" s="198"/>
-      <c r="G51" s="198"/>
+      <c r="B51" s="197"/>
+      <c r="C51" s="197"/>
+      <c r="D51" s="197"/>
+      <c r="E51" s="197"/>
+      <c r="F51" s="197"/>
+      <c r="G51" s="197"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="198"/>
-      <c r="C52" s="198"/>
-      <c r="D52" s="198"/>
-      <c r="E52" s="198"/>
-      <c r="F52" s="198"/>
-      <c r="G52" s="198"/>
+      <c r="B52" s="197"/>
+      <c r="C52" s="197"/>
+      <c r="D52" s="197"/>
+      <c r="E52" s="197"/>
+      <c r="F52" s="197"/>
+      <c r="G52" s="197"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="198"/>
-      <c r="C53" s="198"/>
-      <c r="D53" s="198"/>
-      <c r="E53" s="198"/>
-      <c r="F53" s="198"/>
-      <c r="G53" s="198"/>
+      <c r="B53" s="197"/>
+      <c r="C53" s="197"/>
+      <c r="D53" s="197"/>
+      <c r="E53" s="197"/>
+      <c r="F53" s="197"/>
+      <c r="G53" s="197"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="198"/>
-      <c r="C54" s="198"/>
-      <c r="D54" s="198"/>
-      <c r="E54" s="198"/>
-      <c r="F54" s="198"/>
-      <c r="G54" s="198"/>
+      <c r="B54" s="197"/>
+      <c r="C54" s="197"/>
+      <c r="D54" s="197"/>
+      <c r="E54" s="197"/>
+      <c r="F54" s="197"/>
+      <c r="G54" s="197"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="198"/>
-      <c r="C55" s="198"/>
-      <c r="D55" s="198"/>
-      <c r="E55" s="198"/>
-      <c r="F55" s="198"/>
-      <c r="G55" s="198"/>
+      <c r="B55" s="197"/>
+      <c r="C55" s="197"/>
+      <c r="D55" s="197"/>
+      <c r="E55" s="197"/>
+      <c r="F55" s="197"/>
+      <c r="G55" s="197"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="198"/>
-      <c r="C56" s="198"/>
-      <c r="D56" s="198"/>
-      <c r="E56" s="198"/>
-      <c r="F56" s="198"/>
-      <c r="G56" s="198"/>
+      <c r="B56" s="197"/>
+      <c r="C56" s="197"/>
+      <c r="D56" s="197"/>
+      <c r="E56" s="197"/>
+      <c r="F56" s="197"/>
+      <c r="G56" s="197"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="198"/>
-      <c r="C57" s="198"/>
-      <c r="D57" s="198"/>
-      <c r="E57" s="198"/>
-      <c r="F57" s="198"/>
-      <c r="G57" s="198"/>
+      <c r="B57" s="197"/>
+      <c r="C57" s="197"/>
+      <c r="D57" s="197"/>
+      <c r="E57" s="197"/>
+      <c r="F57" s="197"/>
+      <c r="G57" s="197"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="198"/>
-      <c r="C58" s="198"/>
-      <c r="D58" s="198"/>
-      <c r="E58" s="198"/>
-      <c r="F58" s="198"/>
-      <c r="G58" s="198"/>
+      <c r="B58" s="197"/>
+      <c r="C58" s="197"/>
+      <c r="D58" s="197"/>
+      <c r="E58" s="197"/>
+      <c r="F58" s="197"/>
+      <c r="G58" s="197"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="198"/>
-      <c r="C59" s="198"/>
-      <c r="D59" s="198"/>
-      <c r="E59" s="198"/>
-      <c r="F59" s="198"/>
-      <c r="G59" s="198"/>
+      <c r="B59" s="197"/>
+      <c r="C59" s="197"/>
+      <c r="D59" s="197"/>
+      <c r="E59" s="197"/>
+      <c r="F59" s="197"/>
+      <c r="G59" s="197"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="198"/>
-      <c r="C60" s="198"/>
-      <c r="D60" s="198"/>
-      <c r="E60" s="198"/>
-      <c r="F60" s="198"/>
-      <c r="G60" s="198"/>
+      <c r="B60" s="197"/>
+      <c r="C60" s="197"/>
+      <c r="D60" s="197"/>
+      <c r="E60" s="197"/>
+      <c r="F60" s="197"/>
+      <c r="G60" s="197"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="198"/>
-      <c r="C61" s="198"/>
-      <c r="D61" s="198"/>
-      <c r="E61" s="198"/>
-      <c r="F61" s="198"/>
-      <c r="G61" s="198"/>
+      <c r="B61" s="197"/>
+      <c r="C61" s="197"/>
+      <c r="D61" s="197"/>
+      <c r="E61" s="197"/>
+      <c r="F61" s="197"/>
+      <c r="G61" s="197"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="198"/>
-      <c r="C62" s="198"/>
-      <c r="D62" s="198"/>
-      <c r="E62" s="198"/>
-      <c r="F62" s="198"/>
-      <c r="G62" s="198"/>
+      <c r="B62" s="197"/>
+      <c r="C62" s="197"/>
+      <c r="D62" s="197"/>
+      <c r="E62" s="197"/>
+      <c r="F62" s="197"/>
+      <c r="G62" s="197"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="198"/>
-      <c r="C63" s="198"/>
-      <c r="D63" s="198"/>
-      <c r="E63" s="198"/>
-      <c r="F63" s="198"/>
-      <c r="G63" s="198"/>
+      <c r="B63" s="197"/>
+      <c r="C63" s="197"/>
+      <c r="D63" s="197"/>
+      <c r="E63" s="197"/>
+      <c r="F63" s="197"/>
+      <c r="G63" s="197"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="198"/>
-      <c r="C64" s="198"/>
-      <c r="D64" s="198"/>
-      <c r="E64" s="198"/>
-      <c r="F64" s="198"/>
-      <c r="G64" s="198"/>
+      <c r="B64" s="197"/>
+      <c r="C64" s="197"/>
+      <c r="D64" s="197"/>
+      <c r="E64" s="197"/>
+      <c r="F64" s="197"/>
+      <c r="G64" s="197"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="198"/>
-      <c r="C65" s="198"/>
-      <c r="D65" s="198"/>
-      <c r="E65" s="198"/>
-      <c r="F65" s="198"/>
-      <c r="G65" s="198"/>
+      <c r="B65" s="197"/>
+      <c r="C65" s="197"/>
+      <c r="D65" s="197"/>
+      <c r="E65" s="197"/>
+      <c r="F65" s="197"/>
+      <c r="G65" s="197"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="198"/>
-      <c r="C66" s="198"/>
-      <c r="D66" s="198"/>
-      <c r="E66" s="198"/>
-      <c r="F66" s="198"/>
-      <c r="G66" s="198"/>
+      <c r="B66" s="197"/>
+      <c r="C66" s="197"/>
+      <c r="D66" s="197"/>
+      <c r="E66" s="197"/>
+      <c r="F66" s="197"/>
+      <c r="G66" s="197"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="198"/>
-      <c r="C67" s="198"/>
-      <c r="D67" s="198"/>
-      <c r="E67" s="198"/>
-      <c r="F67" s="198"/>
-      <c r="G67" s="198"/>
+      <c r="B67" s="197"/>
+      <c r="C67" s="197"/>
+      <c r="D67" s="197"/>
+      <c r="E67" s="197"/>
+      <c r="F67" s="197"/>
+      <c r="G67" s="197"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="198"/>
-      <c r="C68" s="198"/>
-      <c r="D68" s="198"/>
-      <c r="E68" s="198"/>
-      <c r="F68" s="198"/>
-      <c r="G68" s="198"/>
+      <c r="B68" s="197"/>
+      <c r="C68" s="197"/>
+      <c r="D68" s="197"/>
+      <c r="E68" s="197"/>
+      <c r="F68" s="197"/>
+      <c r="G68" s="197"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="198"/>
-      <c r="C69" s="198"/>
-      <c r="D69" s="198"/>
-      <c r="E69" s="198"/>
-      <c r="F69" s="198"/>
-      <c r="G69" s="198"/>
+      <c r="B69" s="197"/>
+      <c r="C69" s="197"/>
+      <c r="D69" s="197"/>
+      <c r="E69" s="197"/>
+      <c r="F69" s="197"/>
+      <c r="G69" s="197"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="198"/>
-      <c r="C70" s="198"/>
-      <c r="D70" s="198"/>
-      <c r="E70" s="198"/>
-      <c r="F70" s="198"/>
-      <c r="G70" s="198"/>
+      <c r="B70" s="197"/>
+      <c r="C70" s="197"/>
+      <c r="D70" s="197"/>
+      <c r="E70" s="197"/>
+      <c r="F70" s="197"/>
+      <c r="G70" s="197"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="198"/>
-      <c r="C71" s="198"/>
-      <c r="D71" s="198"/>
-      <c r="E71" s="198"/>
-      <c r="F71" s="198"/>
-      <c r="G71" s="198"/>
+      <c r="B71" s="197"/>
+      <c r="C71" s="197"/>
+      <c r="D71" s="197"/>
+      <c r="E71" s="197"/>
+      <c r="F71" s="197"/>
+      <c r="G71" s="197"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="198"/>
-      <c r="C72" s="198"/>
-      <c r="D72" s="198"/>
-      <c r="E72" s="198"/>
-      <c r="F72" s="198"/>
-      <c r="G72" s="198"/>
+      <c r="B72" s="197"/>
+      <c r="C72" s="197"/>
+      <c r="D72" s="197"/>
+      <c r="E72" s="197"/>
+      <c r="F72" s="197"/>
+      <c r="G72" s="197"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="198"/>
-      <c r="C73" s="198"/>
-      <c r="D73" s="198"/>
-      <c r="E73" s="198"/>
-      <c r="F73" s="198"/>
-      <c r="G73" s="198"/>
+      <c r="B73" s="197"/>
+      <c r="C73" s="197"/>
+      <c r="D73" s="197"/>
+      <c r="E73" s="197"/>
+      <c r="F73" s="197"/>
+      <c r="G73" s="197"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="198"/>
-      <c r="C74" s="198"/>
-      <c r="D74" s="198"/>
-      <c r="E74" s="198"/>
-      <c r="F74" s="198"/>
-      <c r="G74" s="198"/>
+      <c r="B74" s="197"/>
+      <c r="C74" s="197"/>
+      <c r="D74" s="197"/>
+      <c r="E74" s="197"/>
+      <c r="F74" s="197"/>
+      <c r="G74" s="197"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="198"/>
-      <c r="C75" s="198"/>
-      <c r="D75" s="198"/>
-      <c r="E75" s="198"/>
-      <c r="F75" s="198"/>
-      <c r="G75" s="198"/>
+      <c r="B75" s="197"/>
+      <c r="C75" s="197"/>
+      <c r="D75" s="197"/>
+      <c r="E75" s="197"/>
+      <c r="F75" s="197"/>
+      <c r="G75" s="197"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="198"/>
-      <c r="C76" s="198"/>
-      <c r="D76" s="198"/>
-      <c r="E76" s="198"/>
-      <c r="F76" s="198"/>
-      <c r="G76" s="198"/>
+      <c r="B76" s="197"/>
+      <c r="C76" s="197"/>
+      <c r="D76" s="197"/>
+      <c r="E76" s="197"/>
+      <c r="F76" s="197"/>
+      <c r="G76" s="197"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="198"/>
-      <c r="C77" s="198"/>
-      <c r="D77" s="198"/>
-      <c r="E77" s="198"/>
-      <c r="F77" s="198"/>
-      <c r="G77" s="198"/>
+      <c r="B77" s="197"/>
+      <c r="C77" s="197"/>
+      <c r="D77" s="197"/>
+      <c r="E77" s="197"/>
+      <c r="F77" s="197"/>
+      <c r="G77" s="197"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="198"/>
-      <c r="C78" s="198"/>
-      <c r="D78" s="198"/>
-      <c r="E78" s="198"/>
-      <c r="F78" s="198"/>
-      <c r="G78" s="198"/>
+      <c r="B78" s="197"/>
+      <c r="C78" s="197"/>
+      <c r="D78" s="197"/>
+      <c r="E78" s="197"/>
+      <c r="F78" s="197"/>
+      <c r="G78" s="197"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="198"/>
-      <c r="C79" s="198"/>
-      <c r="D79" s="198"/>
-      <c r="E79" s="198"/>
-      <c r="F79" s="198"/>
-      <c r="G79" s="198"/>
+      <c r="B79" s="197"/>
+      <c r="C79" s="197"/>
+      <c r="D79" s="197"/>
+      <c r="E79" s="197"/>
+      <c r="F79" s="197"/>
+      <c r="G79" s="197"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="198"/>
-      <c r="C80" s="198"/>
-      <c r="D80" s="198"/>
-      <c r="E80" s="198"/>
-      <c r="F80" s="198"/>
-      <c r="G80" s="198"/>
+      <c r="B80" s="197"/>
+      <c r="C80" s="197"/>
+      <c r="D80" s="197"/>
+      <c r="E80" s="197"/>
+      <c r="F80" s="197"/>
+      <c r="G80" s="197"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="198"/>
-      <c r="C81" s="198"/>
-      <c r="D81" s="198"/>
-      <c r="E81" s="198"/>
-      <c r="F81" s="198"/>
-      <c r="G81" s="198"/>
+      <c r="B81" s="197"/>
+      <c r="C81" s="197"/>
+      <c r="D81" s="197"/>
+      <c r="E81" s="197"/>
+      <c r="F81" s="197"/>
+      <c r="G81" s="197"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="198"/>
-      <c r="C82" s="198"/>
-      <c r="D82" s="198"/>
-      <c r="E82" s="198"/>
-      <c r="F82" s="198"/>
-      <c r="G82" s="198"/>
+      <c r="B82" s="197"/>
+      <c r="C82" s="197"/>
+      <c r="D82" s="197"/>
+      <c r="E82" s="197"/>
+      <c r="F82" s="197"/>
+      <c r="G82" s="197"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="198"/>
-      <c r="C83" s="198"/>
-      <c r="D83" s="198"/>
-      <c r="E83" s="198"/>
-      <c r="F83" s="198"/>
-      <c r="G83" s="198"/>
+      <c r="B83" s="197"/>
+      <c r="C83" s="197"/>
+      <c r="D83" s="197"/>
+      <c r="E83" s="197"/>
+      <c r="F83" s="197"/>
+      <c r="G83" s="197"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="198"/>
-      <c r="C84" s="198"/>
-      <c r="D84" s="198"/>
-      <c r="E84" s="198"/>
-      <c r="F84" s="198"/>
-      <c r="G84" s="198"/>
+      <c r="B84" s="197"/>
+      <c r="C84" s="197"/>
+      <c r="D84" s="197"/>
+      <c r="E84" s="197"/>
+      <c r="F84" s="197"/>
+      <c r="G84" s="197"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="198"/>
-      <c r="C85" s="198"/>
-      <c r="D85" s="198"/>
-      <c r="E85" s="198"/>
-      <c r="F85" s="198"/>
-      <c r="G85" s="198"/>
+      <c r="B85" s="197"/>
+      <c r="C85" s="197"/>
+      <c r="D85" s="197"/>
+      <c r="E85" s="197"/>
+      <c r="F85" s="197"/>
+      <c r="G85" s="197"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="198"/>
-      <c r="C86" s="198"/>
-      <c r="D86" s="198"/>
-      <c r="E86" s="198"/>
-      <c r="F86" s="198"/>
-      <c r="G86" s="198"/>
+      <c r="B86" s="197"/>
+      <c r="C86" s="197"/>
+      <c r="D86" s="197"/>
+      <c r="E86" s="197"/>
+      <c r="F86" s="197"/>
+      <c r="G86" s="197"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="14">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:F26"/>
@@ -4201,11 +4343,6 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <pageMargins left="0.55138888888888904" right="0.35416666666666702" top="0.39374999999999999" bottom="0.196527777777778" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4224,428 +4361,428 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="141" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" style="141" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="141" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="141" customWidth="1"/>
-    <col min="5" max="7" width="18.6640625" style="142" customWidth="1"/>
-    <col min="8" max="12" width="10.6640625" style="142" customWidth="1"/>
-    <col min="13" max="13" width="1.6640625" style="141" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="141"/>
+    <col min="1" max="1" width="1.6640625" style="140" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" style="140" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="140" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="140" customWidth="1"/>
+    <col min="5" max="7" width="18.6640625" style="141" customWidth="1"/>
+    <col min="8" max="12" width="10.6640625" style="141" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" style="140" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="140"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="143"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
+      <c r="A1" s="142"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="219" t="s">
+      <c r="A2" s="142"/>
+      <c r="B2" s="244" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="219"/>
-      <c r="D2" s="220" t="s">
+      <c r="C2" s="244"/>
+      <c r="D2" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="219" t="s">
+      <c r="A3" s="142"/>
+      <c r="B3" s="244" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="219"/>
-      <c r="D3" s="145" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="147" t="s">
+      <c r="C3" s="244"/>
+      <c r="D3" s="144" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="221" t="s">
+      <c r="F3" s="252" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
-      <c r="A4" s="143"/>
-      <c r="B4" s="222" t="s">
+      <c r="A4" s="142"/>
+      <c r="B4" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="145" t="s">
+      <c r="C4" s="253"/>
+      <c r="D4" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="223">
+      <c r="F4" s="245">
         <v>43926</v>
       </c>
-      <c r="G4" s="223"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="G4" s="245"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="143"/>
-      <c r="B5" s="219" t="s">
+      <c r="A5" s="142"/>
+      <c r="B5" s="244" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="219"/>
-      <c r="D5" s="145" t="s">
+      <c r="C5" s="244"/>
+      <c r="D5" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="223">
+      <c r="F5" s="245">
         <v>43926</v>
       </c>
-      <c r="G5" s="223"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="143"/>
-      <c r="B6" s="224"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
+      <c r="A6" s="142"/>
+      <c r="B6" s="246"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
-      <c r="A7" s="143"/>
-      <c r="B7" s="225" t="s">
+      <c r="A7" s="142"/>
+      <c r="B7" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="225"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225" t="s">
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="225"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="226" t="s">
+      <c r="F7" s="247"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="227"/>
-      <c r="J7" s="227"/>
-      <c r="K7" s="227"/>
-      <c r="L7" s="228"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="249"/>
+      <c r="K7" s="249"/>
+      <c r="L7" s="250"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="A8" s="143"/>
-      <c r="B8" s="225"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="151" t="s">
+      <c r="A8" s="142"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="247"/>
+      <c r="E8" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="151" t="s">
+      <c r="F8" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="151" t="s">
+      <c r="G8" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="151" t="s">
+      <c r="H8" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="151" t="s">
+      <c r="I8" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="151" t="s">
+      <c r="J8" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="151" t="s">
+      <c r="K8" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="151" t="s">
+      <c r="L8" s="150" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="143"/>
-      <c r="B9" s="229"/>
-      <c r="C9" s="229"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="233">
-        <f>COUNTA('UT-getNumGuests'!$B73:$B75)</f>
-        <v>2</v>
-      </c>
-      <c r="I9" s="233">
-        <f>COUNTIF('UT-getNumGuests'!$P73:$P75,'UTP Cover Page'!I8)</f>
-        <v>2</v>
-      </c>
-      <c r="J9" s="233">
-        <f>COUNTIF('UT-getNumGuests'!$P73:$P75,'UTP Cover Page'!J8)</f>
+      <c r="A9" s="142"/>
+      <c r="B9" s="243"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="238">
+        <f>COUNTA('UT-getNumGuests'!$B73:$B76)</f>
+        <v>3</v>
+      </c>
+      <c r="I9" s="238">
+        <f>COUNTIF('UT-getNumGuests'!$P73:$P76,'UTP Cover Page'!I8)</f>
+        <v>3</v>
+      </c>
+      <c r="J9" s="238">
+        <f>COUNTIF('UT-getNumGuests'!$P73:$P76,'UTP Cover Page'!J8)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="233">
-        <f>COUNTIF('UT-getNumGuests'!$P73:$P75,'UTP Cover Page'!K8)</f>
+      <c r="K9" s="238">
+        <f>COUNTIF('UT-getNumGuests'!$P73:$P76,'UTP Cover Page'!K8)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="233">
+      <c r="L9" s="238">
         <f>H9-SUM(I9:K12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="143"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="230" t="s">
+      <c r="A10" s="142"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="242" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="230"/>
+      <c r="D10" s="242"/>
       <c r="E10" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="279" t="s">
+      <c r="F10" s="229" t="s">
         <v>179</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
+      <c r="H10" s="239"/>
+      <c r="I10" s="239"/>
+      <c r="J10" s="239"/>
+      <c r="K10" s="239"/>
+      <c r="L10" s="239"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="143"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="231" t="s">
+      <c r="A11" s="142"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="240" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="231"/>
-      <c r="E11" s="155">
+      <c r="D11" s="240"/>
+      <c r="E11" s="154">
         <v>43926</v>
       </c>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155">
+      <c r="F11" s="154"/>
+      <c r="G11" s="154">
         <v>43926</v>
       </c>
-      <c r="H11" s="234"/>
-      <c r="I11" s="234"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="234"/>
+      <c r="H11" s="239"/>
+      <c r="I11" s="239"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="239"/>
+      <c r="L11" s="239"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="143"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="234"/>
-      <c r="I12" s="234"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="234"/>
+      <c r="A12" s="142"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="241"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="239"/>
+      <c r="I12" s="239"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="239"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="143"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="229"/>
-      <c r="D13" s="229"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="233"/>
-      <c r="I13" s="233"/>
-      <c r="J13" s="233"/>
-      <c r="K13" s="233"/>
-      <c r="L13" s="233"/>
+      <c r="A13" s="142"/>
+      <c r="B13" s="243"/>
+      <c r="C13" s="243"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="238"/>
+      <c r="I13" s="238"/>
+      <c r="J13" s="238"/>
+      <c r="K13" s="238"/>
+      <c r="L13" s="238"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="143"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="230"/>
-      <c r="D14" s="230"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="234"/>
-      <c r="I14" s="234"/>
-      <c r="J14" s="234"/>
-      <c r="K14" s="234"/>
-      <c r="L14" s="234"/>
+      <c r="A14" s="142"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="242"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="239"/>
+      <c r="I14" s="239"/>
+      <c r="J14" s="239"/>
+      <c r="K14" s="239"/>
+      <c r="L14" s="239"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="143"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="231"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="234"/>
-      <c r="I15" s="234"/>
-      <c r="J15" s="234"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="234"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="239"/>
+      <c r="I15" s="239"/>
+      <c r="J15" s="239"/>
+      <c r="K15" s="239"/>
+      <c r="L15" s="239"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="143"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="232"/>
-      <c r="D16" s="232"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="234"/>
-      <c r="I16" s="234"/>
-      <c r="J16" s="234"/>
-      <c r="K16" s="234"/>
-      <c r="L16" s="234"/>
+      <c r="A16" s="142"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="239"/>
+      <c r="I16" s="239"/>
+      <c r="J16" s="239"/>
+      <c r="K16" s="239"/>
+      <c r="L16" s="239"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="143"/>
-      <c r="B17" s="229"/>
-      <c r="C17" s="229"/>
-      <c r="D17" s="229"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="233"/>
-      <c r="L17" s="233"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="243"/>
+      <c r="C17" s="243"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="238"/>
+      <c r="I17" s="238"/>
+      <c r="J17" s="238"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="238"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="143"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="230"/>
-      <c r="D18" s="230"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="234"/>
-      <c r="I18" s="234"/>
-      <c r="J18" s="234"/>
-      <c r="K18" s="234"/>
-      <c r="L18" s="234"/>
+      <c r="A18" s="142"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="239"/>
+      <c r="I18" s="239"/>
+      <c r="J18" s="239"/>
+      <c r="K18" s="239"/>
+      <c r="L18" s="239"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="143"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
-      <c r="K19" s="234"/>
-      <c r="L19" s="234"/>
+      <c r="A19" s="142"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="239"/>
+      <c r="I19" s="239"/>
+      <c r="J19" s="239"/>
+      <c r="K19" s="239"/>
+      <c r="L19" s="239"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="143"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="232"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="234"/>
-      <c r="I20" s="234"/>
-      <c r="J20" s="234"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="234"/>
+      <c r="A20" s="142"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="239"/>
+      <c r="I20" s="239"/>
+      <c r="J20" s="239"/>
+      <c r="K20" s="239"/>
+      <c r="L20" s="239"/>
     </row>
     <row r="21" spans="1:12" ht="17.399999999999999">
-      <c r="A21" s="143"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="161">
+      <c r="A21" s="142"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="160">
         <f>SUM(H9:H20)</f>
-        <v>2</v>
-      </c>
-      <c r="I21" s="161">
+        <v>3</v>
+      </c>
+      <c r="I21" s="160">
         <f>SUM(I9:I20)</f>
-        <v>2</v>
-      </c>
-      <c r="J21" s="161">
+        <v>3</v>
+      </c>
+      <c r="J21" s="160">
         <f>SUM(J9:J20)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="161">
+      <c r="K21" s="160">
         <f>SUM(K9:K20)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="161">
+      <c r="L21" s="160">
         <f>SUM(L9:L20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="13.2">
-      <c r="B22" s="162"/>
+      <c r="B22" s="161"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="39">
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="K17:K20"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="I17:I20"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="B7:D8"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="H9:H12"/>
@@ -4661,18 +4798,18 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="K17:K20"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="L17:L20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C11:D11" location="'UT-SampleModule'!A1" display="viewSched"/>
@@ -4697,141 +4834,141 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="129" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="129" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="129" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" style="129" customWidth="1"/>
-    <col min="5" max="16384" width="8" style="129"/>
+    <col min="1" max="1" width="1.6640625" style="128" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="128" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="128" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" style="128" customWidth="1"/>
+    <col min="5" max="16384" width="8" style="128"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
-      <c r="A1" s="130"/>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
+      <c r="A1" s="129"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
-      <c r="A2" s="130"/>
-      <c r="B2" s="131" t="s">
+      <c r="A2" s="129"/>
+      <c r="B2" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="131" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
-      <c r="A3" s="130"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
-      <c r="A4" s="130"/>
-      <c r="B4" s="134" t="s">
+      <c r="A4" s="129"/>
+      <c r="B4" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="134"/>
+      <c r="C4" s="133"/>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1">
-      <c r="A5" s="130"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="133"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="132"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1">
-      <c r="A6" s="130"/>
-      <c r="B6" s="235" t="s">
+      <c r="A6" s="129"/>
+      <c r="B6" s="254" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="235"/>
+      <c r="C6" s="254"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1">
-      <c r="A7" s="130"/>
-      <c r="B7" s="136" t="s">
+      <c r="A7" s="129"/>
+      <c r="B7" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="135" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1">
-      <c r="A8" s="130"/>
-      <c r="B8" s="136" t="s">
+      <c r="A8" s="129"/>
+      <c r="B8" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="135" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="136" t="s">
+      <c r="A9" s="129"/>
+      <c r="B9" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="135" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1">
-      <c r="A10" s="130"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1">
-      <c r="A11" s="130"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
+      <c r="A11" s="129"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1">
-      <c r="A12" s="130"/>
-      <c r="B12" s="235" t="s">
+      <c r="A12" s="129"/>
+      <c r="B12" s="254" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="235"/>
+      <c r="C12" s="254"/>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1">
-      <c r="A13" s="130"/>
-      <c r="B13" s="136" t="s">
+      <c r="A13" s="129"/>
+      <c r="B13" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="135" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1">
-      <c r="A14" s="130"/>
-      <c r="B14" s="136" t="s">
+      <c r="A14" s="129"/>
+      <c r="B14" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="135" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1">
-      <c r="A15" s="130"/>
-      <c r="B15" s="136" t="s">
+      <c r="A15" s="129"/>
+      <c r="B15" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="135" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1">
-      <c r="A16" s="130"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
     </row>
     <row r="17" spans="1:3" ht="13.2">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
     </row>
     <row r="18" spans="1:3" ht="13.2">
-      <c r="A18" s="130"/>
-      <c r="B18" s="138" t="s">
+      <c r="A18" s="129"/>
+      <c r="B18" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="139"/>
+      <c r="C18" s="138"/>
     </row>
     <row r="19" spans="1:3" ht="13.2">
-      <c r="B19" s="140"/>
+      <c r="B19" s="139"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -4858,359 +4995,359 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="106" customWidth="1"/>
-    <col min="2" max="2" width="100.44140625" style="106" customWidth="1"/>
-    <col min="3" max="5" width="13.109375" style="106" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" style="106" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="106"/>
+    <col min="1" max="1" width="1.6640625" style="105" customWidth="1"/>
+    <col min="2" max="2" width="100.44140625" style="105" customWidth="1"/>
+    <col min="3" max="5" width="13.109375" style="105" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" style="105" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="105"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="17.399999999999999">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="109"/>
     </row>
     <row r="3" spans="1:6" ht="11.4">
-      <c r="A3" s="111"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113"/>
     </row>
     <row r="4" spans="1:6" ht="12">
-      <c r="A4" s="111"/>
-      <c r="B4" s="115" t="s">
+      <c r="A4" s="110"/>
+      <c r="B4" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="114"/>
+      <c r="F4" s="113"/>
     </row>
     <row r="5" spans="1:6" ht="11.4">
-      <c r="A5" s="111"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="114"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="113"/>
     </row>
     <row r="6" spans="1:6" ht="12">
-      <c r="A6" s="111"/>
-      <c r="B6" s="118" t="s">
+      <c r="A6" s="110"/>
+      <c r="B6" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="114"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="113"/>
     </row>
     <row r="7" spans="1:6" ht="11.4">
-      <c r="A7" s="111"/>
-      <c r="B7" s="210" t="s">
+      <c r="A7" s="110"/>
+      <c r="B7" s="209" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="279" t="s">
+      <c r="C7" s="119"/>
+      <c r="D7" s="229" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="114"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="113"/>
     </row>
     <row r="8" spans="1:6" ht="11.4">
-      <c r="A8" s="111"/>
-      <c r="B8" s="210" t="s">
+      <c r="A8" s="110"/>
+      <c r="B8" s="209" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="279" t="s">
+      <c r="C8" s="119"/>
+      <c r="D8" s="229" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="122"/>
-      <c r="F8" s="114"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="113"/>
     </row>
     <row r="9" spans="1:6" ht="11.4">
-      <c r="A9" s="111"/>
-      <c r="B9" s="210" t="s">
+      <c r="A9" s="110"/>
+      <c r="B9" s="209" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="279" t="s">
+      <c r="C9" s="119"/>
+      <c r="D9" s="229" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="122"/>
-      <c r="F9" s="114"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="113"/>
     </row>
     <row r="10" spans="1:6" ht="11.4">
-      <c r="A10" s="111"/>
-      <c r="B10" s="123" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="114"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="11.4">
-      <c r="A11" s="111"/>
-      <c r="B11" s="124" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="114"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="113"/>
     </row>
     <row r="12" spans="1:6" ht="11.4">
-      <c r="A12" s="111"/>
-      <c r="B12" s="124" t="s">
+      <c r="A12" s="110"/>
+      <c r="B12" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="114"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="113"/>
     </row>
     <row r="13" spans="1:6" ht="11.4">
-      <c r="A13" s="111"/>
-      <c r="B13" s="124" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="114"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="113"/>
     </row>
     <row r="14" spans="1:6" ht="11.4">
-      <c r="A14" s="111"/>
-      <c r="B14" s="124" t="s">
+      <c r="A14" s="110"/>
+      <c r="B14" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="114"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="113"/>
     </row>
     <row r="15" spans="1:6" ht="11.4">
-      <c r="A15" s="111"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="114"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="113"/>
     </row>
     <row r="16" spans="1:6" ht="12">
-      <c r="A16" s="111"/>
-      <c r="B16" s="118" t="s">
+      <c r="A16" s="110"/>
+      <c r="B16" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="114"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="113"/>
     </row>
     <row r="17" spans="1:6" ht="11.4">
-      <c r="A17" s="111"/>
-      <c r="B17" s="210" t="s">
+      <c r="A17" s="110"/>
+      <c r="B17" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="279" t="s">
+      <c r="C17" s="119"/>
+      <c r="D17" s="229" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="114"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="113"/>
     </row>
     <row r="18" spans="1:6" ht="11.4">
-      <c r="A18" s="111"/>
-      <c r="B18" s="210" t="s">
+      <c r="A18" s="110"/>
+      <c r="B18" s="209" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121" t="s">
+      <c r="C18" s="119"/>
+      <c r="D18" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="E18" s="122"/>
-      <c r="F18" s="114"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="113"/>
     </row>
     <row r="19" spans="1:6" ht="11.4">
-      <c r="A19" s="111"/>
-      <c r="B19" s="123" t="s">
+      <c r="A19" s="110"/>
+      <c r="B19" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="114"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="20" spans="1:6" ht="11.4">
-      <c r="A20" s="111"/>
-      <c r="B20" s="123" t="s">
+      <c r="A20" s="110"/>
+      <c r="B20" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="114"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="113"/>
     </row>
     <row r="21" spans="1:6" ht="11.4">
-      <c r="A21" s="111"/>
-      <c r="B21" s="210" t="s">
+      <c r="A21" s="110"/>
+      <c r="B21" s="209" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121" t="s">
+      <c r="C21" s="119"/>
+      <c r="D21" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="114"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="113"/>
     </row>
     <row r="22" spans="1:6" ht="11.4">
-      <c r="A22" s="111"/>
-      <c r="B22" s="210" t="s">
+      <c r="A22" s="110"/>
+      <c r="B22" s="209" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="121" t="s">
+      <c r="C22" s="119"/>
+      <c r="D22" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="E22" s="122"/>
-      <c r="F22" s="114"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="113"/>
     </row>
     <row r="23" spans="1:6" ht="11.4">
-      <c r="A23" s="111"/>
-      <c r="B23" s="123" t="s">
+      <c r="A23" s="110"/>
+      <c r="B23" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="114"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="113"/>
     </row>
     <row r="24" spans="1:6" ht="11.4">
-      <c r="A24" s="111"/>
-      <c r="B24" s="123" t="s">
+      <c r="A24" s="110"/>
+      <c r="B24" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="114"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="113"/>
     </row>
     <row r="25" spans="1:6" ht="11.4">
-      <c r="A25" s="111"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="114"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="113"/>
     </row>
     <row r="26" spans="1:6" ht="12">
-      <c r="A26" s="111"/>
-      <c r="B26" s="118" t="s">
+      <c r="A26" s="110"/>
+      <c r="B26" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="114"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="113"/>
     </row>
     <row r="27" spans="1:6" ht="11.4">
-      <c r="A27" s="111"/>
-      <c r="B27" s="210" t="s">
+      <c r="A27" s="110"/>
+      <c r="B27" s="209" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="121" t="s">
+      <c r="C27" s="119"/>
+      <c r="D27" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="E27" s="122"/>
-      <c r="F27" s="114"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="113"/>
     </row>
     <row r="28" spans="1:6" ht="11.4">
-      <c r="A28" s="111"/>
-      <c r="B28" s="210" t="s">
+      <c r="A28" s="110"/>
+      <c r="B28" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="121" t="s">
+      <c r="C28" s="119"/>
+      <c r="D28" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="E28" s="122"/>
-      <c r="F28" s="114"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="113"/>
     </row>
     <row r="29" spans="1:6" ht="11.4">
-      <c r="A29" s="111"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="114"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="113"/>
     </row>
     <row r="30" spans="1:6" ht="12">
-      <c r="A30" s="111"/>
-      <c r="B30" s="118" t="s">
+      <c r="A30" s="110"/>
+      <c r="B30" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="114"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="113"/>
     </row>
     <row r="31" spans="1:6" ht="11.4">
-      <c r="A31" s="111"/>
-      <c r="B31" s="210" t="s">
+      <c r="A31" s="110"/>
+      <c r="B31" s="209" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="120"/>
-      <c r="D31" s="121" t="s">
+      <c r="C31" s="119"/>
+      <c r="D31" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="E31" s="122"/>
-      <c r="F31" s="114"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="113"/>
     </row>
     <row r="32" spans="1:6" ht="11.4">
-      <c r="A32" s="111"/>
-      <c r="B32" s="123" t="s">
+      <c r="A32" s="110"/>
+      <c r="B32" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="114"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="113"/>
     </row>
     <row r="33" spans="1:6" ht="11.4">
-      <c r="A33" s="111"/>
-      <c r="B33" s="123" t="s">
+      <c r="A33" s="110"/>
+      <c r="B33" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="114"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="113"/>
     </row>
     <row r="34" spans="1:6" ht="11.4">
-      <c r="A34" s="125"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="128"/>
+      <c r="A34" s="124"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="127"/>
     </row>
     <row r="35" spans="1:6" ht="11.4">
-      <c r="B35" s="119"/>
+      <c r="B35" s="118"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -5238,779 +5375,779 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="83" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="84" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="84" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="85" customWidth="1"/>
-    <col min="6" max="6" width="40.77734375" style="85" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="86" customWidth="1"/>
-    <col min="8" max="8" width="41.77734375" style="85" customWidth="1"/>
-    <col min="9" max="10" width="32.44140625" style="85" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="84" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="85" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="85" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="85" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="85" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="85" customWidth="1"/>
-    <col min="17" max="17" width="12.21875" style="85" customWidth="1"/>
-    <col min="18" max="18" width="12.21875" style="84" customWidth="1"/>
-    <col min="19" max="19" width="9" style="85" customWidth="1"/>
-    <col min="20" max="20" width="12.21875" style="85" customWidth="1"/>
-    <col min="21" max="21" width="50.109375" style="85" customWidth="1"/>
-    <col min="22" max="256" width="9" style="85"/>
+    <col min="1" max="1" width="12.109375" style="82" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="83" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="83" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="84" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" style="84" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="85" customWidth="1"/>
+    <col min="8" max="8" width="41.77734375" style="84" customWidth="1"/>
+    <col min="9" max="10" width="32.44140625" style="84" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="83" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="84" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="84" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="84" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="84" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="84" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" style="84" customWidth="1"/>
+    <col min="18" max="18" width="12.21875" style="83" customWidth="1"/>
+    <col min="19" max="19" width="9" style="84" customWidth="1"/>
+    <col min="20" max="20" width="12.21875" style="84" customWidth="1"/>
+    <col min="21" max="21" width="50.109375" style="84" customWidth="1"/>
+    <col min="22" max="256" width="9" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="R1" s="85"/>
-    </row>
-    <row r="2" spans="1:22" s="81" customFormat="1" ht="39.6">
-      <c r="A2" s="87" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="R1" s="84"/>
+    </row>
+    <row r="2" spans="1:22" s="80" customFormat="1" ht="39.6">
+      <c r="A2" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="87" t="s">
+      <c r="K2" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="87" t="s">
+      <c r="L2" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="87" t="s">
+      <c r="M2" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="87" t="s">
+      <c r="O2" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="87" t="s">
+      <c r="P2" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" s="87" t="s">
+      <c r="Q2" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="R2" s="87" t="s">
+      <c r="R2" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="S2" s="87" t="s">
+      <c r="S2" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="T2" s="87" t="s">
+      <c r="T2" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="U2" s="87" t="s">
+      <c r="U2" s="86" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="103"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="102"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="103"/>
-    </row>
-    <row r="5" spans="1:22" s="82" customFormat="1" ht="11.4">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="89"/>
-      <c r="G5" s="92"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="85"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="102"/>
+    </row>
+    <row r="5" spans="1:22" s="81" customFormat="1" ht="11.4">
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="88"/>
+      <c r="G5" s="91"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="84"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="90"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="89"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="103"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="102"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="103"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="102"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="89"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="103"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="102"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="89"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="103"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="102"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="89"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="103"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="102"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="89"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="103"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="102"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="89"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="103"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="102"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="103"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="102"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="89"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="103"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="102"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="103"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="88"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="102"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="89"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="103"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="102"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="89"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="103"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="102"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="89"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="102"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="103"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="102"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="89"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="103"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="102"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="89"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="93"/>
-      <c r="U21" s="103"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="102"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="89"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="103"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="102"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="K23" s="98"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="101"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="100"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="K24" s="98"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="105"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="101"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="100"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="K25" s="98"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="105"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="100"/>
-      <c r="U25" s="101"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="100"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="K26" s="98"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="101"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="100"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="K27" s="98"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="105"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="101"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="100"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="K28" s="98"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="105"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="101"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="100"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="K29" s="98"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="105"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="101"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="100"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="K30" s="98"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="105"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="101"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="100"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="K31" s="98"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="105"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="101"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="100"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="K32" s="98"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="105"/>
-      <c r="S32" s="99"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="101"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="100"/>
     </row>
     <row r="33" spans="11:21">
-      <c r="K33" s="98"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="100"/>
-      <c r="R33" s="105"/>
-      <c r="S33" s="99"/>
-      <c r="T33" s="100"/>
-      <c r="U33" s="101"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="99"/>
+      <c r="U33" s="100"/>
     </row>
     <row r="34" spans="11:21">
-      <c r="K34" s="98"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="100"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="100"/>
-      <c r="U34" s="101"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="104"/>
+      <c r="S34" s="98"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="100"/>
     </row>
     <row r="35" spans="11:21">
-      <c r="K35" s="98"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="100"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="99"/>
-      <c r="T35" s="100"/>
-      <c r="U35" s="101"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="98"/>
+      <c r="T35" s="99"/>
+      <c r="U35" s="100"/>
     </row>
     <row r="36" spans="11:21">
-      <c r="K36" s="98"/>
-      <c r="L36" s="99"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="100"/>
-      <c r="R36" s="105"/>
-      <c r="S36" s="99"/>
-      <c r="T36" s="100"/>
-      <c r="U36" s="101"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="98"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="104"/>
+      <c r="S36" s="98"/>
+      <c r="T36" s="99"/>
+      <c r="U36" s="100"/>
     </row>
     <row r="37" spans="11:21">
-      <c r="K37" s="98"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="100"/>
-      <c r="N37" s="99"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="99"/>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="105"/>
-      <c r="S37" s="99"/>
-      <c r="T37" s="100"/>
-      <c r="U37" s="101"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="98"/>
+      <c r="O37" s="100"/>
+      <c r="P37" s="98"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="104"/>
+      <c r="S37" s="98"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="100"/>
     </row>
     <row r="38" spans="11:21">
-      <c r="K38" s="98"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="99"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="99"/>
-      <c r="Q38" s="100"/>
-      <c r="R38" s="105"/>
-      <c r="S38" s="99"/>
-      <c r="T38" s="100"/>
-      <c r="U38" s="101"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="99"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="100"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="99"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="98"/>
+      <c r="T38" s="99"/>
+      <c r="U38" s="100"/>
     </row>
     <row r="39" spans="11:21">
-      <c r="K39" s="98"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="99"/>
-      <c r="Q39" s="100"/>
-      <c r="R39" s="105"/>
-      <c r="S39" s="99"/>
-      <c r="T39" s="100"/>
-      <c r="U39" s="101"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="98"/>
+      <c r="M39" s="99"/>
+      <c r="N39" s="98"/>
+      <c r="O39" s="100"/>
+      <c r="P39" s="98"/>
+      <c r="Q39" s="99"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="98"/>
+      <c r="T39" s="99"/>
+      <c r="U39" s="100"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -6046,10 +6183,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+    <sheetView showGridLines="0" topLeftCell="A72" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75:L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="10.8"/>
@@ -6070,14 +6207,14 @@
       <c r="I1" s="43"/>
     </row>
     <row r="2" spans="2:25" s="1" customFormat="1" ht="11.4">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="277" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="236"/>
-      <c r="D2" s="237" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="237"/>
+      <c r="C2" s="277"/>
+      <c r="D2" s="273" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="273"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -6085,14 +6222,14 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="2:25" s="1" customFormat="1" ht="11.4">
-      <c r="B3" s="236" t="s">
+      <c r="B3" s="277" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237" t="s">
+      <c r="C3" s="277"/>
+      <c r="D3" s="273" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="237"/>
+      <c r="E3" s="273"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -6100,42 +6237,42 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="2:25" s="1" customFormat="1" ht="11.4">
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="274" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="237" t="s">
+      <c r="C4" s="274"/>
+      <c r="D4" s="273" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="237"/>
+      <c r="E4" s="273"/>
       <c r="F4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="237" t="s">
+      <c r="G4" s="273" t="s">
         <v>180</v>
       </c>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
+      <c r="H4" s="273"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
     </row>
     <row r="5" spans="2:25" s="1" customFormat="1" ht="11.4">
-      <c r="B5" s="238" t="s">
+      <c r="B5" s="274" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="238"/>
-      <c r="D5" s="239" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="239"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="275" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="275"/>
       <c r="F5" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="240">
+      <c r="G5" s="276">
         <v>43926</v>
       </c>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
+      <c r="H5" s="276"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="276"/>
     </row>
     <row r="6" spans="2:25" s="1" customFormat="1">
       <c r="H6" s="9"/>
@@ -6564,7 +6701,7 @@
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
-      <c r="P22" s="260"/>
+      <c r="P22" s="210"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
@@ -6668,7 +6805,7 @@
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
-      <c r="Q26" s="260"/>
+      <c r="Q26" s="210"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="25"/>
@@ -7156,17 +7293,17 @@
       <c r="Y45" s="33"/>
     </row>
     <row r="46" spans="2:25" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B46" s="254" t="s">
+      <c r="B46" s="256" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="256">
+      <c r="C46" s="258">
         <v>2</v>
       </c>
-      <c r="D46" s="257"/>
-      <c r="E46" s="256" t="s">
+      <c r="D46" s="259"/>
+      <c r="E46" s="258" t="s">
         <v>173</v>
       </c>
-      <c r="F46" s="257"/>
+      <c r="F46" s="259"/>
       <c r="G46" s="35" t="s">
         <v>123</v>
       </c>
@@ -7190,11 +7327,11 @@
       <c r="Y46" s="58"/>
     </row>
     <row r="47" spans="2:25" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B47" s="255"/>
-      <c r="C47" s="258"/>
-      <c r="D47" s="259"/>
-      <c r="E47" s="258"/>
-      <c r="F47" s="259"/>
+      <c r="B47" s="257"/>
+      <c r="C47" s="260"/>
+      <c r="D47" s="261"/>
+      <c r="E47" s="260"/>
+      <c r="F47" s="261"/>
       <c r="G47" s="37" t="s">
         <v>124</v>
       </c>
@@ -7218,17 +7355,17 @@
       <c r="Y47" s="59"/>
     </row>
     <row r="48" spans="2:25" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B48" s="254" t="s">
+      <c r="B48" s="256" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="256">
+      <c r="C48" s="258">
         <v>3</v>
       </c>
-      <c r="D48" s="257"/>
-      <c r="E48" s="256" t="s">
+      <c r="D48" s="259"/>
+      <c r="E48" s="258" t="s">
         <v>174</v>
       </c>
-      <c r="F48" s="257"/>
+      <c r="F48" s="259"/>
       <c r="G48" s="35" t="s">
         <v>123</v>
       </c>
@@ -7252,11 +7389,11 @@
       <c r="Y48" s="58"/>
     </row>
     <row r="49" spans="2:25" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B49" s="255"/>
-      <c r="C49" s="258"/>
-      <c r="D49" s="259"/>
-      <c r="E49" s="258"/>
-      <c r="F49" s="259"/>
+      <c r="B49" s="257"/>
+      <c r="C49" s="260"/>
+      <c r="D49" s="261"/>
+      <c r="E49" s="260"/>
+      <c r="F49" s="261"/>
       <c r="G49" s="37" t="s">
         <v>124</v>
       </c>
@@ -7280,17 +7417,17 @@
       <c r="Y49" s="59"/>
     </row>
     <row r="50" spans="2:25" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B50" s="254" t="s">
+      <c r="B50" s="256" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="256">
+      <c r="C50" s="258">
         <v>6</v>
       </c>
-      <c r="D50" s="257"/>
-      <c r="E50" s="256" t="s">
+      <c r="D50" s="259"/>
+      <c r="E50" s="258" t="s">
         <v>174</v>
       </c>
-      <c r="F50" s="257"/>
+      <c r="F50" s="259"/>
       <c r="G50" s="35" t="s">
         <v>123</v>
       </c>
@@ -7314,11 +7451,11 @@
       <c r="Y50" s="58"/>
     </row>
     <row r="51" spans="2:25" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B51" s="255"/>
-      <c r="C51" s="258"/>
-      <c r="D51" s="259"/>
-      <c r="E51" s="258"/>
-      <c r="F51" s="259"/>
+      <c r="B51" s="257"/>
+      <c r="C51" s="260"/>
+      <c r="D51" s="261"/>
+      <c r="E51" s="260"/>
+      <c r="F51" s="261"/>
       <c r="G51" s="37" t="s">
         <v>124</v>
       </c>
@@ -7342,17 +7479,17 @@
       <c r="Y51" s="59"/>
     </row>
     <row r="52" spans="2:25" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B52" s="254" t="s">
+      <c r="B52" s="256" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="256">
+      <c r="C52" s="258">
         <v>8</v>
       </c>
-      <c r="D52" s="257"/>
-      <c r="E52" s="256" t="s">
+      <c r="D52" s="259"/>
+      <c r="E52" s="258" t="s">
         <v>175</v>
       </c>
-      <c r="F52" s="257"/>
+      <c r="F52" s="259"/>
       <c r="G52" s="35" t="s">
         <v>123</v>
       </c>
@@ -7376,11 +7513,11 @@
       <c r="Y52" s="58"/>
     </row>
     <row r="53" spans="2:25" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B53" s="255"/>
-      <c r="C53" s="258"/>
-      <c r="D53" s="259"/>
-      <c r="E53" s="258"/>
-      <c r="F53" s="259"/>
+      <c r="B53" s="257"/>
+      <c r="C53" s="260"/>
+      <c r="D53" s="261"/>
+      <c r="E53" s="260"/>
+      <c r="F53" s="261"/>
       <c r="G53" s="37" t="s">
         <v>124</v>
       </c>
@@ -7404,17 +7541,17 @@
       <c r="Y53" s="59"/>
     </row>
     <row r="54" spans="2:25" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B54" s="254" t="s">
+      <c r="B54" s="256" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="256">
+      <c r="C54" s="258">
         <v>11</v>
       </c>
-      <c r="D54" s="257"/>
-      <c r="E54" s="256" t="s">
+      <c r="D54" s="259"/>
+      <c r="E54" s="258" t="s">
         <v>176</v>
       </c>
-      <c r="F54" s="257"/>
+      <c r="F54" s="259"/>
       <c r="G54" s="35" t="s">
         <v>123</v>
       </c>
@@ -7438,11 +7575,11 @@
       <c r="Y54" s="58"/>
     </row>
     <row r="55" spans="2:25" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B55" s="255"/>
-      <c r="C55" s="258"/>
-      <c r="D55" s="259"/>
-      <c r="E55" s="258"/>
-      <c r="F55" s="259"/>
+      <c r="B55" s="257"/>
+      <c r="C55" s="260"/>
+      <c r="D55" s="261"/>
+      <c r="E55" s="260"/>
+      <c r="F55" s="261"/>
       <c r="G55" s="37" t="s">
         <v>124</v>
       </c>
@@ -7554,192 +7691,196 @@
       <c r="Y58" s="34"/>
     </row>
     <row r="59" spans="2:25" s="1" customFormat="1" ht="11.4">
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="282" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="263"/>
-      <c r="D59" s="263" t="s">
+      <c r="C59" s="213"/>
+      <c r="D59" s="213" t="s">
         <v>122</v>
       </c>
-      <c r="E59" s="263" t="s">
+      <c r="E59" s="213" t="s">
         <v>125</v>
       </c>
-      <c r="F59" s="264"/>
-      <c r="G59" s="264"/>
-      <c r="H59" s="263" t="s">
+      <c r="F59" s="214"/>
+      <c r="G59" s="214"/>
+      <c r="H59" s="213" t="s">
         <v>126</v>
       </c>
-      <c r="I59" s="263"/>
-      <c r="J59" s="263" t="s">
+      <c r="I59" s="213"/>
+      <c r="J59" s="213" t="s">
         <v>127</v>
       </c>
-      <c r="K59" s="263"/>
-      <c r="L59" s="264"/>
-      <c r="M59" s="263" t="s">
+      <c r="K59" s="213"/>
+      <c r="L59" s="214"/>
+      <c r="M59" s="213" t="s">
         <v>128</v>
       </c>
-      <c r="N59" s="263"/>
-      <c r="O59" s="263"/>
-      <c r="P59" s="276"/>
-      <c r="Q59" s="277"/>
-      <c r="R59" s="277"/>
-      <c r="S59" s="277"/>
-      <c r="T59" s="277"/>
-      <c r="U59" s="277"/>
-      <c r="V59" s="277"/>
-      <c r="W59" s="277"/>
-      <c r="X59" s="277"/>
-      <c r="Y59" s="278"/>
+      <c r="N59" s="213"/>
+      <c r="O59" s="213"/>
+      <c r="P59" s="226"/>
+      <c r="Q59" s="227"/>
+      <c r="R59" s="227"/>
+      <c r="S59" s="227"/>
+      <c r="T59" s="227"/>
+      <c r="U59" s="227"/>
+      <c r="V59" s="227"/>
+      <c r="W59" s="227"/>
+      <c r="X59" s="227"/>
+      <c r="Y59" s="228"/>
     </row>
     <row r="60" spans="2:25" s="1" customFormat="1" ht="11.4">
-      <c r="B60" s="280" t="s">
+      <c r="B60" s="281" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="261" t="s">
+      <c r="C60" s="211" t="s">
         <v>132</v>
       </c>
-      <c r="D60" s="269" t="s">
+      <c r="D60" s="219" t="s">
         <v>124</v>
       </c>
-      <c r="E60" s="267" t="s">
+      <c r="E60" s="217" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="267" t="s">
+      <c r="F60" s="217" t="s">
         <v>133</v>
       </c>
-      <c r="G60" s="267" t="s">
+      <c r="G60" s="217" t="s">
         <v>133</v>
       </c>
-      <c r="H60" s="267" t="s">
+      <c r="H60" s="217" t="s">
         <v>133</v>
       </c>
-      <c r="I60" s="267" t="s">
+      <c r="I60" s="217" t="s">
         <v>133</v>
       </c>
-      <c r="J60" s="267" t="s">
+      <c r="J60" s="217" t="s">
         <v>133</v>
       </c>
-      <c r="K60" s="267" t="s">
+      <c r="K60" s="217" t="s">
         <v>133</v>
       </c>
-      <c r="L60" s="267" t="s">
+      <c r="L60" s="217" t="s">
         <v>133</v>
       </c>
-      <c r="M60" s="267" t="s">
+      <c r="M60" s="217" t="s">
         <v>133</v>
       </c>
-      <c r="N60" s="267" t="s">
+      <c r="N60" s="217" t="s">
         <v>133</v>
       </c>
-      <c r="O60" s="261" t="s">
+      <c r="O60" s="211" t="s">
         <v>132</v>
       </c>
-      <c r="P60" s="273" t="s">
+      <c r="P60" s="223" t="s">
         <v>132</v>
       </c>
-      <c r="Q60" s="274"/>
-      <c r="R60" s="274"/>
-      <c r="S60" s="274"/>
-      <c r="T60" s="274"/>
-      <c r="U60" s="274"/>
-      <c r="V60" s="274"/>
-      <c r="W60" s="274"/>
-      <c r="X60" s="274"/>
-      <c r="Y60" s="275"/>
+      <c r="Q60" s="224"/>
+      <c r="R60" s="224"/>
+      <c r="S60" s="224"/>
+      <c r="T60" s="224"/>
+      <c r="U60" s="224"/>
+      <c r="V60" s="224"/>
+      <c r="W60" s="224"/>
+      <c r="X60" s="224"/>
+      <c r="Y60" s="225"/>
     </row>
     <row r="61" spans="2:25" s="1" customFormat="1" ht="12.6" customHeight="1">
-      <c r="B61" s="281"/>
-      <c r="C61" s="66" t="s">
+      <c r="B61" s="281" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D61" s="271" t="s">
+      <c r="D61" s="221" t="s">
         <v>123</v>
       </c>
-      <c r="E61" s="271" t="s">
+      <c r="E61" s="221" t="s">
         <v>123</v>
       </c>
-      <c r="F61" s="271" t="s">
+      <c r="F61" s="221" t="s">
         <v>132</v>
       </c>
-      <c r="G61" s="271" t="s">
+      <c r="G61" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="H61" s="271" t="s">
+      <c r="H61" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="I61" s="271" t="s">
+      <c r="I61" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="J61" s="271" t="s">
+      <c r="J61" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="K61" s="271" t="s">
+      <c r="K61" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="L61" s="271" t="s">
+      <c r="L61" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="M61" s="271" t="s">
+      <c r="M61" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="N61" s="271" t="s">
+      <c r="N61" s="221" t="s">
         <v>133</v>
       </c>
       <c r="O61" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="P61" s="265" t="s">
+      <c r="P61" s="215" t="s">
         <v>132</v>
       </c>
-      <c r="Q61" s="266"/>
-      <c r="R61" s="266"/>
-      <c r="S61" s="266"/>
-      <c r="T61" s="266"/>
-      <c r="U61" s="266"/>
-      <c r="V61" s="266"/>
-      <c r="W61" s="266"/>
-      <c r="X61" s="266"/>
-      <c r="Y61" s="272"/>
+      <c r="Q61" s="216"/>
+      <c r="R61" s="216"/>
+      <c r="S61" s="216"/>
+      <c r="T61" s="216"/>
+      <c r="U61" s="216"/>
+      <c r="V61" s="216"/>
+      <c r="W61" s="216"/>
+      <c r="X61" s="216"/>
+      <c r="Y61" s="222"/>
     </row>
     <row r="62" spans="2:25" s="1" customFormat="1" ht="12.6" customHeight="1">
-      <c r="B62" s="281"/>
-      <c r="C62" s="265" t="s">
+      <c r="B62" s="278" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="215" t="s">
         <v>132</v>
       </c>
-      <c r="D62" s="268" t="s">
+      <c r="D62" s="218" t="s">
         <v>123</v>
       </c>
-      <c r="E62" s="270" t="s">
+      <c r="E62" s="220" t="s">
         <v>124</v>
       </c>
-      <c r="F62" s="270" t="s">
+      <c r="F62" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="G62" s="270" t="s">
+      <c r="G62" s="220" t="s">
         <v>132</v>
       </c>
-      <c r="H62" s="270" t="s">
+      <c r="H62" s="220" t="s">
         <v>123</v>
       </c>
-      <c r="I62" s="270" t="s">
+      <c r="I62" s="220" t="s">
         <v>132</v>
       </c>
-      <c r="J62" s="270" t="s">
+      <c r="J62" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="K62" s="270" t="s">
+      <c r="K62" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="L62" s="270" t="s">
+      <c r="L62" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="M62" s="270" t="s">
+      <c r="M62" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="N62" s="270" t="s">
+      <c r="N62" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="O62" s="265" t="s">
+      <c r="O62" s="215" t="s">
         <v>133</v>
       </c>
       <c r="P62" s="40" t="s">
@@ -7756,9 +7897,9 @@
       <c r="Y62" s="60"/>
     </row>
     <row r="63" spans="2:25" s="1" customFormat="1" ht="12.6" customHeight="1">
-      <c r="B63" s="281"/>
-      <c r="C63" s="63" t="s">
-        <v>132</v>
+      <c r="B63" s="279"/>
+      <c r="C63" s="62" t="s">
+        <v>133</v>
       </c>
       <c r="D63" s="42" t="s">
         <v>123</v>
@@ -7810,14 +7951,14 @@
       <c r="Y63" s="61"/>
     </row>
     <row r="64" spans="2:25" s="1" customFormat="1" ht="12.6" customHeight="1">
-      <c r="B64" s="282"/>
-      <c r="C64" s="63" t="s">
-        <v>132</v>
+      <c r="B64" s="280"/>
+      <c r="C64" s="62" t="s">
+        <v>133</v>
       </c>
       <c r="D64" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E64" s="262" t="s">
+      <c r="E64" s="212" t="s">
         <v>124</v>
       </c>
       <c r="F64" s="42" t="s">
@@ -7864,10 +8005,10 @@
       <c r="Y64" s="61"/>
     </row>
     <row r="65" spans="1:25" s="1" customFormat="1" ht="12.6" customHeight="1">
-      <c r="B65" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="63" t="s">
+      <c r="B65" s="283" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="62" t="s">
         <v>132</v>
       </c>
       <c r="D65" s="42" t="s">
@@ -7920,82 +8061,110 @@
       <c r="Y65" s="61"/>
     </row>
     <row r="66" spans="1:25" s="1" customFormat="1" ht="12.6" customHeight="1">
-      <c r="B66" s="64"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="66"/>
-      <c r="L66" s="66"/>
-      <c r="M66" s="66"/>
-      <c r="N66" s="66"/>
-      <c r="O66" s="66"/>
-      <c r="P66" s="66"/>
-      <c r="Q66" s="66"/>
-      <c r="R66" s="66"/>
-      <c r="S66" s="66"/>
-      <c r="T66" s="66"/>
-      <c r="U66" s="66"/>
-      <c r="V66" s="66"/>
-      <c r="W66" s="66"/>
-      <c r="X66" s="66"/>
-      <c r="Y66" s="79"/>
+      <c r="B66" s="284"/>
+      <c r="C66" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H66" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="I66" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="J66" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="K66" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="L66" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="M66" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="N66" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="O66" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="P66" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q66" s="65"/>
+      <c r="R66" s="65"/>
+      <c r="S66" s="65"/>
+      <c r="T66" s="65"/>
+      <c r="U66" s="65"/>
+      <c r="V66" s="65"/>
+      <c r="W66" s="65"/>
+      <c r="X66" s="65"/>
+      <c r="Y66" s="78"/>
     </row>
     <row r="67" spans="1:25" s="1" customFormat="1" ht="12.6" customHeight="1">
-      <c r="B67" s="64"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66"/>
-      <c r="L67" s="66"/>
-      <c r="M67" s="66"/>
-      <c r="N67" s="66"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="66"/>
-      <c r="Q67" s="66"/>
-      <c r="R67" s="66"/>
-      <c r="S67" s="66"/>
-      <c r="T67" s="66"/>
-      <c r="U67" s="66"/>
-      <c r="V67" s="66"/>
-      <c r="W67" s="66"/>
-      <c r="X67" s="66"/>
-      <c r="Y67" s="79"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+      <c r="M67" s="65"/>
+      <c r="N67" s="65"/>
+      <c r="O67" s="65"/>
+      <c r="P67" s="65"/>
+      <c r="Q67" s="65"/>
+      <c r="R67" s="65"/>
+      <c r="S67" s="65"/>
+      <c r="T67" s="65"/>
+      <c r="U67" s="65"/>
+      <c r="V67" s="65"/>
+      <c r="W67" s="65"/>
+      <c r="X67" s="65"/>
+      <c r="Y67" s="78"/>
     </row>
     <row r="68" spans="1:25" s="1" customFormat="1" ht="12.6" customHeight="1">
-      <c r="B68" s="67"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="69"/>
-      <c r="L68" s="69"/>
-      <c r="M68" s="69"/>
-      <c r="N68" s="69"/>
-      <c r="O68" s="69"/>
-      <c r="P68" s="69"/>
-      <c r="Q68" s="69"/>
-      <c r="R68" s="69"/>
-      <c r="S68" s="69"/>
-      <c r="T68" s="69"/>
-      <c r="U68" s="69"/>
-      <c r="V68" s="69"/>
-      <c r="W68" s="69"/>
-      <c r="X68" s="69"/>
-      <c r="Y68" s="80"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="68"/>
+      <c r="M68" s="68"/>
+      <c r="N68" s="68"/>
+      <c r="O68" s="68"/>
+      <c r="P68" s="68"/>
+      <c r="Q68" s="68"/>
+      <c r="R68" s="68"/>
+      <c r="S68" s="68"/>
+      <c r="T68" s="68"/>
+      <c r="U68" s="68"/>
+      <c r="V68" s="68"/>
+      <c r="W68" s="68"/>
+      <c r="X68" s="68"/>
+      <c r="Y68" s="79"/>
     </row>
     <row r="69" spans="1:25" s="1" customFormat="1">
       <c r="H69" s="9"/>
@@ -8006,203 +8175,290 @@
       <c r="I70" s="43"/>
     </row>
     <row r="71" spans="1:25" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A71" s="70"/>
-      <c r="B71" s="71" t="s">
+      <c r="A71" s="69"/>
+      <c r="B71" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="241" t="s">
+      <c r="C71" s="269" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="241"/>
-      <c r="E71" s="241"/>
-      <c r="F71" s="241" t="s">
+      <c r="D71" s="269"/>
+      <c r="E71" s="269"/>
+      <c r="F71" s="269" t="s">
         <v>137</v>
       </c>
-      <c r="G71" s="241"/>
-      <c r="H71" s="241"/>
-      <c r="I71" s="241"/>
-      <c r="J71" s="241" t="s">
+      <c r="G71" s="269"/>
+      <c r="H71" s="269"/>
+      <c r="I71" s="269"/>
+      <c r="J71" s="269" t="s">
         <v>138</v>
       </c>
-      <c r="K71" s="241"/>
-      <c r="L71" s="241"/>
-      <c r="M71" s="241" t="s">
+      <c r="K71" s="269"/>
+      <c r="L71" s="269"/>
+      <c r="M71" s="269" t="s">
         <v>139</v>
       </c>
-      <c r="N71" s="241"/>
-      <c r="O71" s="241"/>
-      <c r="P71" s="71" t="s">
+      <c r="N71" s="269"/>
+      <c r="O71" s="269"/>
+      <c r="P71" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="Q71" s="242" t="s">
+      <c r="Q71" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="R71" s="242"/>
-      <c r="S71" s="241" t="s">
+      <c r="R71" s="270"/>
+      <c r="S71" s="269" t="s">
         <v>140</v>
       </c>
-      <c r="T71" s="241"/>
-      <c r="U71" s="241"/>
-      <c r="V71" s="241"/>
-      <c r="W71" s="241"/>
-      <c r="X71" s="241"/>
-      <c r="Y71" s="241"/>
+      <c r="T71" s="269"/>
+      <c r="U71" s="269"/>
+      <c r="V71" s="269"/>
+      <c r="W71" s="269"/>
+      <c r="X71" s="269"/>
+      <c r="Y71" s="269"/>
     </row>
     <row r="72" spans="1:25" s="3" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A72" s="72"/>
-      <c r="B72" s="73" t="s">
+      <c r="A72" s="71"/>
+      <c r="B72" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="243" t="s">
+      <c r="C72" s="271" t="s">
         <v>142</v>
       </c>
-      <c r="D72" s="243"/>
-      <c r="E72" s="243"/>
-      <c r="F72" s="243" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="271"/>
+      <c r="F72" s="271" t="s">
         <v>143</v>
       </c>
-      <c r="G72" s="243"/>
-      <c r="H72" s="243"/>
-      <c r="I72" s="243"/>
-      <c r="J72" s="243" t="s">
+      <c r="G72" s="271"/>
+      <c r="H72" s="271"/>
+      <c r="I72" s="271"/>
+      <c r="J72" s="271" t="s">
         <v>144</v>
       </c>
-      <c r="K72" s="243"/>
-      <c r="L72" s="243"/>
-      <c r="M72" s="243" t="s">
+      <c r="K72" s="271"/>
+      <c r="L72" s="271"/>
+      <c r="M72" s="271" t="s">
         <v>145</v>
       </c>
-      <c r="N72" s="243"/>
-      <c r="O72" s="243"/>
-      <c r="P72" s="76" t="s">
+      <c r="N72" s="271"/>
+      <c r="O72" s="271"/>
+      <c r="P72" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="Q72" s="244" t="s">
+      <c r="Q72" s="272" t="s">
         <v>147</v>
       </c>
-      <c r="R72" s="244"/>
-      <c r="S72" s="243" t="s">
+      <c r="R72" s="272"/>
+      <c r="S72" s="271" t="s">
         <v>148</v>
       </c>
-      <c r="T72" s="243"/>
-      <c r="U72" s="243"/>
-      <c r="V72" s="243"/>
-      <c r="W72" s="243"/>
-      <c r="X72" s="243"/>
-      <c r="Y72" s="243"/>
-    </row>
-    <row r="73" spans="1:25" ht="147.6" customHeight="1">
-      <c r="B73" s="74" t="s">
+      <c r="T72" s="271"/>
+      <c r="U72" s="271"/>
+      <c r="V72" s="271"/>
+      <c r="W72" s="271"/>
+      <c r="X72" s="271"/>
+      <c r="Y72" s="271"/>
+    </row>
+    <row r="73" spans="1:25" ht="56.4" customHeight="1">
+      <c r="B73" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="C73" s="245" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" s="245"/>
-      <c r="E73" s="245"/>
-      <c r="F73" s="245" t="s">
+      <c r="C73" s="285" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73" s="285"/>
+      <c r="E73" s="285"/>
+      <c r="F73" s="267" t="s">
         <v>150</v>
       </c>
-      <c r="G73" s="245"/>
-      <c r="H73" s="245"/>
-      <c r="I73" s="245"/>
-      <c r="J73" s="245" t="s">
+      <c r="G73" s="267"/>
+      <c r="H73" s="267"/>
+      <c r="I73" s="267"/>
+      <c r="J73" s="267" t="s">
+        <v>186</v>
+      </c>
+      <c r="K73" s="267"/>
+      <c r="L73" s="267"/>
+      <c r="M73" s="292" t="s">
+        <v>186</v>
+      </c>
+      <c r="N73" s="292"/>
+      <c r="O73" s="292"/>
+      <c r="P73" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q73" s="268">
+        <v>43926</v>
+      </c>
+      <c r="R73" s="268"/>
+      <c r="S73" s="266"/>
+      <c r="T73" s="266"/>
+      <c r="U73" s="266"/>
+      <c r="V73" s="266"/>
+      <c r="W73" s="266"/>
+      <c r="X73" s="266"/>
+      <c r="Y73" s="266"/>
+    </row>
+    <row r="74" spans="1:25" ht="130.80000000000001" customHeight="1">
+      <c r="B74" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="285" t="s">
         <v>183</v>
       </c>
-      <c r="K73" s="245"/>
-      <c r="L73" s="245"/>
-      <c r="M73" s="246" t="s">
+      <c r="D74" s="285"/>
+      <c r="E74" s="285"/>
+      <c r="F74" s="267" t="s">
+        <v>150</v>
+      </c>
+      <c r="G74" s="267"/>
+      <c r="H74" s="267"/>
+      <c r="I74" s="267"/>
+      <c r="J74" s="267" t="s">
+        <v>188</v>
+      </c>
+      <c r="K74" s="267"/>
+      <c r="L74" s="267"/>
+      <c r="M74" s="292" t="s">
+        <v>187</v>
+      </c>
+      <c r="N74" s="292"/>
+      <c r="O74" s="292"/>
+      <c r="P74" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q74" s="268">
+        <v>43926</v>
+      </c>
+      <c r="R74" s="268"/>
+      <c r="S74" s="266"/>
+      <c r="T74" s="266"/>
+      <c r="U74" s="266"/>
+      <c r="V74" s="266"/>
+      <c r="W74" s="266"/>
+      <c r="X74" s="266"/>
+      <c r="Y74" s="266"/>
+    </row>
+    <row r="75" spans="1:25" ht="146.4" customHeight="1">
+      <c r="B75" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" s="286" t="s">
         <v>184</v>
       </c>
-      <c r="N73" s="246"/>
-      <c r="O73" s="246"/>
-      <c r="P73" s="77" t="s">
+      <c r="D75" s="287"/>
+      <c r="E75" s="288"/>
+      <c r="F75" s="267" t="s">
+        <v>150</v>
+      </c>
+      <c r="G75" s="267"/>
+      <c r="H75" s="267"/>
+      <c r="I75" s="267"/>
+      <c r="J75" s="296" t="s">
+        <v>189</v>
+      </c>
+      <c r="K75" s="297"/>
+      <c r="L75" s="298"/>
+      <c r="M75" s="293" t="s">
+        <v>190</v>
+      </c>
+      <c r="N75" s="294"/>
+      <c r="O75" s="295"/>
+      <c r="P75" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="Q73" s="247">
+      <c r="Q75" s="268">
         <v>43926</v>
       </c>
-      <c r="R73" s="247"/>
-      <c r="S73" s="248"/>
-      <c r="T73" s="248"/>
-      <c r="U73" s="248"/>
-      <c r="V73" s="248"/>
-      <c r="W73" s="248"/>
-      <c r="X73" s="248"/>
-      <c r="Y73" s="248"/>
-    </row>
-    <row r="74" spans="1:25" ht="88.2" customHeight="1">
-      <c r="B74" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74" s="245" t="s">
-        <v>134</v>
-      </c>
-      <c r="D74" s="245"/>
-      <c r="E74" s="245"/>
-      <c r="F74" s="245" t="s">
-        <v>150</v>
-      </c>
-      <c r="G74" s="245"/>
-      <c r="H74" s="245"/>
-      <c r="I74" s="245"/>
-      <c r="J74" s="245" t="s">
-        <v>182</v>
-      </c>
-      <c r="K74" s="245"/>
-      <c r="L74" s="245"/>
-      <c r="M74" s="246" t="s">
-        <v>181</v>
-      </c>
-      <c r="N74" s="246"/>
-      <c r="O74" s="246"/>
-      <c r="P74" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q74" s="247">
-        <v>43926</v>
-      </c>
-      <c r="R74" s="247"/>
-      <c r="S74" s="248"/>
-      <c r="T74" s="248"/>
-      <c r="U74" s="248"/>
-      <c r="V74" s="248"/>
-      <c r="W74" s="248"/>
-      <c r="X74" s="248"/>
-      <c r="Y74" s="248"/>
-    </row>
-    <row r="75" spans="1:25" ht="12.6" customHeight="1">
-      <c r="B75" s="75"/>
-      <c r="C75" s="249"/>
-      <c r="D75" s="249"/>
-      <c r="E75" s="249"/>
-      <c r="F75" s="250" t="s">
+      <c r="R75" s="268"/>
+      <c r="S75" s="289"/>
+      <c r="T75" s="290"/>
+      <c r="U75" s="290"/>
+      <c r="V75" s="290"/>
+      <c r="W75" s="290"/>
+      <c r="X75" s="290"/>
+      <c r="Y75" s="291"/>
+    </row>
+    <row r="76" spans="1:25" ht="12.6" customHeight="1">
+      <c r="B76" s="74"/>
+      <c r="C76" s="262"/>
+      <c r="D76" s="262"/>
+      <c r="E76" s="262"/>
+      <c r="F76" s="263" t="s">
         <v>152</v>
       </c>
-      <c r="G75" s="250"/>
-      <c r="H75" s="250"/>
-      <c r="I75" s="250"/>
-      <c r="J75" s="249"/>
-      <c r="K75" s="249"/>
-      <c r="L75" s="249"/>
-      <c r="M75" s="251"/>
-      <c r="N75" s="251"/>
-      <c r="O75" s="251"/>
-      <c r="P75" s="78"/>
-      <c r="Q75" s="252"/>
-      <c r="R75" s="252"/>
-      <c r="S75" s="253"/>
-      <c r="T75" s="253"/>
-      <c r="U75" s="253"/>
-      <c r="V75" s="253"/>
-      <c r="W75" s="253"/>
-      <c r="X75" s="253"/>
-      <c r="Y75" s="253"/>
+      <c r="G76" s="263"/>
+      <c r="H76" s="263"/>
+      <c r="I76" s="263"/>
+      <c r="J76" s="262"/>
+      <c r="K76" s="262"/>
+      <c r="L76" s="262"/>
+      <c r="M76" s="264"/>
+      <c r="N76" s="264"/>
+      <c r="O76" s="264"/>
+      <c r="P76" s="77"/>
+      <c r="Q76" s="265"/>
+      <c r="R76" s="265"/>
+      <c r="S76" s="255"/>
+      <c r="T76" s="255"/>
+      <c r="U76" s="255"/>
+      <c r="V76" s="255"/>
+      <c r="W76" s="255"/>
+      <c r="X76" s="255"/>
+      <c r="Y76" s="255"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="56">
+  <mergeCells count="63">
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="S71:Y71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="S72:Y72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="S73:Y73"/>
+    <mergeCell ref="S74:Y74"/>
     <mergeCell ref="S75:Y75"/>
+    <mergeCell ref="S76:Y76"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
@@ -8217,47 +8473,7 @@
     <mergeCell ref="C52:D53"/>
     <mergeCell ref="E52:F53"/>
     <mergeCell ref="C54:D55"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="S73:Y73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="S74:Y74"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="S71:Y71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="S72:Y72"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="J71:L71"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C76:E76"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.196850393700787" bottom="0.196850393700787" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
